--- a/Matrikel for North Side A kvarter/Point17_99_2/Point17_99_2.xlsx
+++ b/Matrikel for North Side A kvarter/Point17_99_2/Point17_99_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\Matrikel for North Side A kvarter\Point17_99_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E71DF84-9814-43BA-A8D2-0952137C4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C532041A-5F5E-4458-A80A-5F8902AE5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81D95704-1AD1-43DE-A47A-B46272ED857A}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>A list of all the while persons Residing on the estate</t>
   </si>
   <si>
-    <t>the property of seth &amp; Thomas Smith with all the</t>
-  </si>
-  <si>
     <t>Negroes &amp;</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Shandy</t>
+  </si>
+  <si>
+    <t>the property of Seth &amp; Thomas Smith with all the</t>
   </si>
 </sst>
 </file>
@@ -248,10 +248,13 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -264,9 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,178 +617,178 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="72" customHeight="1">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="3:7" ht="72" customHeight="1">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="3:7" ht="36">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="3:7" ht="36">
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="3:7" ht="36">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="3:7" ht="36">
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="36">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="1">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="36">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" ht="36">
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="36">
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="3:7" ht="36">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="3:7" ht="36">
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="3:7" ht="36">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:7" ht="36">
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="3:7" ht="36">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="3:7" ht="36">
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="3:7" ht="36">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="3:7" ht="36">
-      <c r="C12" s="4"/>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="3:7" ht="36">
+      <c r="C13" s="6"/>
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="3:7" ht="36">
-      <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="3:7" ht="36">
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="3:7" ht="36">
-      <c r="C14" s="5"/>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="3:7" ht="36">
+      <c r="C15" s="6"/>
+      <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="3:7" ht="36">
-      <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="3:7" ht="36">
+      <c r="C16" s="7"/>
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="3:7" ht="36">
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
